--- a/src/main/resources/filteredList.xlsx
+++ b/src/main/resources/filteredList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendenchoate/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brendenchoate/dev/demo/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22335F4B-ED5F-314F-910B-F29F8D268401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845FB32F-C238-C247-A79F-91C185C3756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BC8D8658-09BF-3A4E-A0AE-3D84FA593726}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{BC8D8658-09BF-3A4E-A0AE-3D84FA593726}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>jain Doe</t>
+  </si>
+  <si>
+    <t>john doe</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>jain@example.com</t>
+  </si>
+  <si>
+    <t>jane@example.com</t>
+  </si>
+  <si>
+    <t>Decision Maker</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,87 +440,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003A367A-5F4F-BB40-9E24-424EFF3FEA86}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>9</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0921CE29-DF95-AA44-A71E-8976E35B524D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5FDAE81D-8386-2442-814E-B7350B793297}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>